--- a/static/markup.xlsx
+++ b/static/markup.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shl17\Dropbox\Fastcampus\team6\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUPS\마이폴더\Dropbox\Fastcampus\team6\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="0" windowWidth="14784" windowHeight="8844"/>
+    <workbookView xWindow="2130" yWindow="0" windowWidth="14790" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="메인화면" sheetId="1" r:id="rId1"/>
+    <sheet name="화면사이즈" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>본문바로가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,34 @@
   </si>
   <si>
     <t>nav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스크탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어컨텐츠의 min-width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나머지 스크린의 여백은 wrapper로 감싸기로 . </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,21 +468,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -461,7 +490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -469,7 +498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -477,7 +506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -485,7 +514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -493,7 +522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -501,62 +530,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -565,4 +594,68 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>